--- a/documentation/diag_ht2_table.xlsx
+++ b/documentation/diag_ht2_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ht2\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD45AFF-2CD8-4435-87DC-EB3C89544458}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D08CAD-CB53-428D-A3C4-A4C774BA8F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1980" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="diag_ht2_table" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,6 @@
     <t>A for all except for those specified as A|B below</t>
   </si>
   <si>
-    <t>0|1 for all except for those specified as 0|1|2 below</t>
-  </si>
-  <si>
     <t>Blodprop i benets vener (DVT)</t>
   </si>
   <si>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>0|2</t>
+  </si>
+  <si>
+    <t>0 for all except for those specified as 0|2 below</t>
   </si>
 </sst>
 </file>
@@ -674,48 +674,48 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Farve1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Farve2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Farve3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Farve4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Farve5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Farve6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Farve1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Farve2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Farve3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Farve4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Farve5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Farve6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Farve1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Farve2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Farve3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Farve4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Farve5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Farve6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Advarselstekst" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Bemærk!" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Beregning" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Farve1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Farve2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Farve3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Farve4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Farve5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Farve6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Forklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="God" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Kontrollér celle" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Overskrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Overskrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Overskrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Overskrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Sammenkædet celle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Titel" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Ugyldig" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -731,7 +731,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1054,7 +1054,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,38 +1090,38 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -1129,169 +1129,169 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
         <v>36</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
         <v>39</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
         <v>42</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>43</v>
       </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
         <v>45</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>46</v>
       </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -1299,53 +1299,53 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
         <v>48</v>
       </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
         <v>50</v>
       </c>
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" t="s">
-        <v>51</v>
-      </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
         <v>52</v>
       </c>
-      <c r="B17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/diag_ht2_table.xlsx
+++ b/documentation/diag_ht2_table.xlsx
@@ -1351,4 +1351,293 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100C21F4A74EA20814FBE25E057DCC75538" ma:contentTypeVersion="20" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="e214c25fca44af27a3be54b33f5e492a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="8508b02e-578d-4912-a055-7a04e002cb01" xmlns:ns3="2a0c92fe-308b-46a0-a37c-b907dad01a6e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dc7f9cb99788e0d563cf2698c9e85b22" ns1:_="" ns2:_="" ns3:_="">
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+    <xsd:import namespace="8508b02e-578d-4912-a055-7a04e002cb01"/>
+    <xsd:import namespace="2a0c92fe-308b-46a0-a37c-b907dad01a6e"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="26" nillable="true" ma:displayName="Egenskaber for Unified Compliance Policy" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="27" nillable="true" ma:displayName="Handling for Unified Compliance Policy-grænseflade" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8508b02e-578d-4912-a055-7a04e002cb01" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="19" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Billedmærker" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="0f4ba6cc-c927-4b53-bf7b-a74df4bab933" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2a0c92fe-308b-46a0-a37c-b907dad01a6e" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="13" nillable="true" ma:displayName="Delt med" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="14" nillable="true" ma:displayName="Delt med detaljer" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{f6cdc0ac-c47c-4a02-b334-de4ba219e99d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="2a0c92fe-308b-46a0-a37c-b907dad01a6e">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Indholdstype"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96C0DBEB-99D7-417D-A0CF-BC4323DD1DE1}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AB019CC-9B6C-48D4-AC68-BDF30A5E8713}"/>
 </file>